--- a/Assets/Dialogue/CMRCoversation.xlsx
+++ b/Assets/Dialogue/CMRCoversation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\陆昱良\BlueX\Prototyping\Assets\Dialogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0A75A7-0326-4BA5-8CAC-8091D36076EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69D6509-939D-4AC4-9747-A383AFA39E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>Actor</t>
   </si>
@@ -398,6 +398,170 @@
   </si>
   <si>
     <t>现在，待在那里。一动不动地站着。让我深深地、仔细地看一眼。</t>
+  </si>
+  <si>
+    <t>Where, thou askest? Ubi sunt, ubi nunc. Thou art alone. Nothing else, truly, nothing.</t>
+  </si>
+  <si>
+    <t>All that returneth to thee doth so at the appointed time, child. O heart! Recur!</t>
+  </si>
+  <si>
+    <t>Aye, the game continueth!</t>
+  </si>
+  <si>
+    <t>Sentence3_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence3_cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence4_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence4_cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enjoying the old-fashioned game? A fine diversion for mortals, especially the mad ones. Calms them swiftly.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>What thinkest thou, our mighty cold-blooded winged assassin? Seest thou aught different through those cursed goggles?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stacking, arranging, then clearing it all in one fell swoop. Boom, what a display! All gone. Seem familiar? Dost thou miss it?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet old memories, dost thou recall them? They should come back to thee. Recur, say we. Recur! Do thyself a favor.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thou canst not escape that — without those goggles, thou wouldst never perceive aright for long in this place.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thou art one of them, child. One of them, as I have spoken.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>If it be of aid, look beneath thy cockpit. Thou knowest my meaning.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是的，游戏继续！</t>
+  </si>
+  <si>
+    <t>喜欢老式游戏吗？这对凡人，尤其是疯狂的凡人来说是个很好的消遣。让他们迅速平静下来。</t>
+  </si>
+  <si>
+    <t>你在想什么，我们强大的冷血翼刺客？透过那些被诅咒的护目镜，你看到了什么不同吗？</t>
+  </si>
+  <si>
+    <t>堆叠，排列，然后清除，一气呵成。嘭，多么壮观的场面！全没了。熟悉吗？你是否想念它？</t>
+  </si>
+  <si>
+    <t>甜蜜的往事，你还记得吗？它们应该回到你身边。我们说，重现。重现！帮你自己一个忙。</t>
+  </si>
+  <si>
+    <r>
+      <t>你无法逃避</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果没有那副护目镜，你将无法在这个地方长久地正确感知。</t>
+    </r>
+  </si>
+  <si>
+    <t>你是他们中的一员，孩子。我说过，你是他们中的一员。</t>
+  </si>
+  <si>
+    <t>你问在哪里？你是孤独的。没有别的，真的，没有别的。</t>
+  </si>
+  <si>
+    <t>孩子，所有回到你身边的人都在约定的时间回到你身边。心啊！复生吧！</t>
+  </si>
+  <si>
+    <t>如果能帮上忙，就看看你的座舱吧。你知道我的意思。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bravo! Now, eyes upon the foe! Eyes upon the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mortals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> perish to become heroes. True </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>heroes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> never perish.</t>
+    </r>
+  </si>
+  <si>
+    <t>好极了！现在，注视敌人！注视英雄！</t>
+  </si>
+  <si>
+    <t>凡人为成为英雄而灭亡。真正的英雄永不灭亡。</t>
   </si>
 </sst>
 </file>
@@ -470,11 +634,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -809,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="A5" sqref="A5:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -822,7 +987,7 @@
     <col min="5" max="5" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,12 +998,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
@@ -858,13 +1023,25 @@
       <c r="H2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -884,11 +1061,27 @@
       <c r="H3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -901,11 +1094,27 @@
       <c r="F4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -918,77 +1127,142 @@
       <c r="F5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -996,10 +1270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
+    <row r="13" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -1007,10 +1278,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
+    <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -1018,10 +1286,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
+    <row r="15" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1029,10 +1294,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
+    <row r="16" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1040,10 +1302,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
+    <row r="17" spans="3:4" ht="13" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>19</v>
       </c>

--- a/Assets/Dialogue/CMRCoversation.xlsx
+++ b/Assets/Dialogue/CMRCoversation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\陆昱良\BlueX\Prototyping\Assets\Dialogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69D6509-939D-4AC4-9747-A383AFA39E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289BBA60-4AA0-4C86-A72E-45A3F652E577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
   <si>
     <t>Actor</t>
   </si>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Hark, YOU.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Aye, thou heard me aright. Thou, with that ludicrous thing upon thy head. Declare thyself.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -93,35 +89,14 @@
     <t>Certainly. Thou art lost, child. Find me. I shall be thine eyes. I shall be the remedy to thy blindness and ignorance.</t>
   </si>
   <si>
-    <t>是啊，你没听错。你，头上戴着可笑的东西。说说你自己吧。</t>
-  </si>
-  <si>
-    <t>的确是另一个人。昔日的另一个。站在这里的另一个人。</t>
-  </si>
-  <si>
-    <t>在你面前的另一个，笼罩在火山口下。另一个在你之外，盘旋在虚空之上。</t>
-  </si>
-  <si>
     <t>是啊，我的孩子，你只是自己，不是吗？你是他们中的一员，我明白了。</t>
   </si>
   <si>
     <t>当然。你迷路了，孩子。找到我。我将是你的眼睛。我将弥补你的盲目和无知。</t>
   </si>
   <si>
-    <t>听，你。</t>
-  </si>
-  <si>
-    <r>
-      <t>听着，咕噜，我知道那是什么。我的意思是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>--</t>
+    <r>
+      <t>......</t>
     </r>
     <r>
       <rPr>
@@ -130,7 +105,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>战后你为什么还留着那副眼镜？</t>
+      <t>你是他们中的一员，不是吗？</t>
     </r>
   </si>
   <si>
@@ -144,15 +119,27 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>你是他们中的一员，不是吗？</t>
-    </r>
-  </si>
-  <si>
-    <t>我？我是另一个。</t>
-  </si>
-  <si>
-    <r>
-      <t>......</t>
+      <t>我是任何东西，除了你之外的任何东西。我是一个说者，就像你曾经是一样。</t>
+    </r>
+  </si>
+  <si>
+    <t>你曾是你。你是你。你将成为你。这对我并不重要。对我来说，孩子，你只是他们中的一员，毫无疑问。</t>
+  </si>
+  <si>
+    <t>真遗憾，不是吗？是啊，真遗憾！你只有自由。现在集中精力，半神。集中精力，士兵！</t>
+  </si>
+  <si>
+    <r>
+      <t>听着，别对我发那飞行员的脾气。我们用你取代那些自以为是的双足</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>**</t>
     </r>
     <r>
       <rPr>
@@ -161,18 +148,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>我是任何东西，除了你之外的任何东西。我是一个说者，就像你曾经是一样。</t>
-    </r>
-  </si>
-  <si>
-    <t>你曾是你。你是你。你将成为你。这对我并不重要。对我来说，孩子，你只是他们中的一员，毫无疑问。</t>
-  </si>
-  <si>
-    <t>真遗憾，不是吗？是啊，真遗憾！你只有自由。现在集中精力，半神。集中精力，士兵！</t>
-  </si>
-  <si>
-    <r>
-      <t>听着，别对我发那飞行员的脾气。我们用你取代那些自以为是的双足</t>
+      <t>是有原因的。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>但我不会对你说</t>
     </r>
     <r>
       <rPr>
@@ -181,7 +162,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>**</t>
+      <t>'</t>
     </r>
     <r>
       <rPr>
@@ -190,12 +171,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>是有原因的。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>但我不会对你说</t>
+      <t>不</t>
     </r>
     <r>
       <rPr>
@@ -213,7 +189,53 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>不</t>
+      <t>。所以，如果你愿意，就保持镇定，跟着我走。</t>
+    </r>
+  </si>
+  <si>
+    <t>说你是什么，孩子。说你是飞行员。飞行员会和领航员争论吗？</t>
+  </si>
+  <si>
+    <t>prologue_cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prologue_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence1_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence1_cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>There thou art. At last growing accustomed to those two frail, slender limbs of thine?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你来了。终于习惯了你那两只纤细柔弱的肢体了吗？</t>
+  </si>
+  <si>
+    <t>过来，孩子。再靠近点。</t>
+  </si>
+  <si>
+    <t>我不会把你整个吃掉，别担心。你既不会失去肉，也不会失去血。向前走。我想好好地看你。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Come hither, child. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Closer</t>
     </r>
     <r>
       <rPr>
@@ -222,7 +244,199 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>'</t>
+      <t xml:space="preserve"> still.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I shall not devour thee whole, fret not. Thou hast </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>neither</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> flesh </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> blood to lose. Step </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>forward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. I desire a proper </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>gaze</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> upon thee.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Now. Stay there. Stand motionless. Let me take a deep, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>deep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> look.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sentence2_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence2_cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在，待在那里。一动不动地站着。让我深深地、仔细地看一眼。</t>
+  </si>
+  <si>
+    <t>Where, thou askest? Ubi sunt, ubi nunc. Thou art alone. Nothing else, truly, nothing.</t>
+  </si>
+  <si>
+    <t>All that returneth to thee doth so at the appointed time, child. O heart! Recur!</t>
+  </si>
+  <si>
+    <t>Aye, the game continueth!</t>
+  </si>
+  <si>
+    <t>Sentence3_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence3_cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence4_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence4_cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enjoying the old-fashioned game? A fine diversion for mortals, especially the mad ones. Calms them swiftly.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>What thinkest thou, our mighty cold-blooded winged assassin? Seest thou aught different through those cursed goggles?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stacking, arranging, then clearing it all in one fell swoop. Boom, what a display! All gone. Seem familiar? Dost thou miss it?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet old memories, dost thou recall them? They should come back to thee. Recur, say we. Recur! Do thyself a favor.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thou canst not escape that — without those goggles, thou wouldst never perceive aright for long in this place.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thou art one of them, child. One of them, as I have spoken.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>If it be of aid, look beneath thy cockpit. Thou knowest my meaning.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是的，游戏继续！</t>
+  </si>
+  <si>
+    <t>喜欢老式游戏吗？这对凡人，尤其是疯狂的凡人来说是个很好的消遣。让他们迅速平静下来。</t>
+  </si>
+  <si>
+    <t>你在想什么，我们强大的冷血翼刺客？透过那些被诅咒的护目镜，你看到了什么不同吗？</t>
+  </si>
+  <si>
+    <t>堆叠，排列，然后清除，一气呵成。嘭，多么壮观的场面！全没了。熟悉吗？你是否想念它？</t>
+  </si>
+  <si>
+    <t>甜蜜的往事，你还记得吗？它们应该回到你身边。我们说，重现。重现！帮你自己一个忙。</t>
+  </si>
+  <si>
+    <r>
+      <t>你无法逃避</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>--</t>
     </r>
     <r>
       <rPr>
@@ -231,44 +445,24 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>。所以，如果你愿意，就保持镇定，跟着我走。</t>
-    </r>
-  </si>
-  <si>
-    <t>说你是什么，孩子。说你是飞行员。飞行员会和领航员争论吗？</t>
-  </si>
-  <si>
-    <t>prologue_cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prologue_en</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sentence1_en</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sentence1_cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>There thou art. At last growing accustomed to those two frail, slender limbs of thine?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>你来了。终于习惯了你那两只纤细柔弱的肢体了吗？</t>
-  </si>
-  <si>
-    <t>过来，孩子。再靠近点。</t>
-  </si>
-  <si>
-    <t>我不会把你整个吃掉，别担心。你既不会失去肉，也不会失去血。向前走。我想好好地看你。</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Come hither, child. </t>
+      <t>如果没有那副护目镜，你将无法在这个地方长久地正确感知。</t>
+    </r>
+  </si>
+  <si>
+    <t>你是他们中的一员，孩子。我说过，你是他们中的一员。</t>
+  </si>
+  <si>
+    <t>你问在哪里？你是孤独的。没有别的，真的，没有别的。</t>
+  </si>
+  <si>
+    <t>孩子，所有回到你身边的人都在约定的时间回到你身边。心啊！复生吧！</t>
+  </si>
+  <si>
+    <t>如果能帮上忙，就看看你的座舱吧。你知道我的意思。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bravo! Now, eyes upon the foe! Eyes upon the </t>
     </r>
     <r>
       <rPr>
@@ -277,7 +471,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Closer</t>
+      <t>Hero</t>
     </r>
     <r>
       <rPr>
@@ -286,12 +480,21 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> still.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I shall not devour thee whole, fret not. Thou hast </t>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mortals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> perish to become heroes. True </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +503,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>neither</t>
+      <t>heroes</t>
     </r>
     <r>
       <rPr>
@@ -309,167 +512,22 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> flesh </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>nor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> blood to lose. Step </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>forward</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. I desire a proper </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gaze</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> upon thee.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Now. Stay there. Stand motionless. Let me take a deep, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>deep</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> look.</t>
-    </r>
-  </si>
-  <si>
-    <t>Sentence2_en</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sentence2_cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在，待在那里。一动不动地站着。让我深深地、仔细地看一眼。</t>
-  </si>
-  <si>
-    <t>Where, thou askest? Ubi sunt, ubi nunc. Thou art alone. Nothing else, truly, nothing.</t>
-  </si>
-  <si>
-    <t>All that returneth to thee doth so at the appointed time, child. O heart! Recur!</t>
-  </si>
-  <si>
-    <t>Aye, the game continueth!</t>
-  </si>
-  <si>
-    <t>Sentence3_en</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sentence3_cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sentence4_en</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sentence4_cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enjoying the old-fashioned game? A fine diversion for mortals, especially the mad ones. Calms them swiftly.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>What thinkest thou, our mighty cold-blooded winged assassin? Seest thou aught different through those cursed goggles?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stacking, arranging, then clearing it all in one fell swoop. Boom, what a display! All gone. Seem familiar? Dost thou miss it?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweet old memories, dost thou recall them? They should come back to thee. Recur, say we. Recur! Do thyself a favor.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thou canst not escape that — without those goggles, thou wouldst never perceive aright for long in this place.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thou art one of them, child. One of them, as I have spoken.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>If it be of aid, look beneath thy cockpit. Thou knowest my meaning.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是的，游戏继续！</t>
-  </si>
-  <si>
-    <t>喜欢老式游戏吗？这对凡人，尤其是疯狂的凡人来说是个很好的消遣。让他们迅速平静下来。</t>
-  </si>
-  <si>
-    <t>你在想什么，我们强大的冷血翼刺客？透过那些被诅咒的护目镜，你看到了什么不同吗？</t>
-  </si>
-  <si>
-    <t>堆叠，排列，然后清除，一气呵成。嘭，多么壮观的场面！全没了。熟悉吗？你是否想念它？</t>
-  </si>
-  <si>
-    <t>甜蜜的往事，你还记得吗？它们应该回到你身边。我们说，重现。重现！帮你自己一个忙。</t>
-  </si>
-  <si>
-    <r>
-      <t>你无法逃避</t>
+      <t xml:space="preserve"> never perish.</t>
+    </r>
+  </si>
+  <si>
+    <t>好极了！现在，注视敌人！注视英雄！</t>
+  </si>
+  <si>
+    <t>凡人为成为英雄而灭亡。真正的英雄永不灭亡。</t>
+  </si>
+  <si>
+    <t>对的，你没听错。就是你，头戴古怪东西的家伙。宣明你自己的身份。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>听着，呃，我知道那是什么。我的意思是</t>
     </r>
     <r>
       <rPr>
@@ -487,81 +545,29 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>如果没有那副护目镜，你将无法在这个地方长久地正确感知。</t>
-    </r>
-  </si>
-  <si>
-    <t>你是他们中的一员，孩子。我说过，你是他们中的一员。</t>
-  </si>
-  <si>
-    <t>你问在哪里？你是孤独的。没有别的，真的，没有别的。</t>
-  </si>
-  <si>
-    <t>孩子，所有回到你身边的人都在约定的时间回到你身边。心啊！复生吧！</t>
-  </si>
-  <si>
-    <t>如果能帮上忙，就看看你的座舱吧。你知道我的意思。</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bravo! Now, eyes upon the foe! Eyes upon the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hero</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Mortals</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> perish to become heroes. True </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>heroes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> never perish.</t>
-    </r>
-  </si>
-  <si>
-    <t>好极了！现在，注视敌人！注视英雄！</t>
-  </si>
-  <si>
-    <t>凡人为成为英雄而灭亡。真正的英雄永不灭亡。</t>
+      <t>为什么战争结束后你还戴着这个护目镜？</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我？我是另者。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在你面前的另一个，笼罩在火山口下。另一个在你之外，盘旋在虚空之上。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没错，另一个人。来自昔日的另一个。站在这里的另一个人。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hark, &lt;color=#0000FF&gt;YOU&lt;/color&gt;.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂，&lt;color=#0000FF&gt;你&lt;/color&gt;。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -976,14 +982,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.6328125" customWidth="1"/>
     <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="90.36328125" customWidth="1"/>
+    <col min="4" max="4" width="85.36328125" customWidth="1"/>
     <col min="5" max="5" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1002,38 +1010,38 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>53</v>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" t="s">
-        <v>54</v>
-      </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1041,37 +1049,37 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
         <v>56</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
       </c>
       <c r="N3" s="3"/>
     </row>
@@ -1080,31 +1088,31 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -1113,31 +1121,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -1145,20 +1153,20 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>67</v>
+      <c r="B6" t="s">
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N6" s="3"/>
     </row>
@@ -1167,19 +1175,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1187,19 +1195,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1207,19 +1215,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.25">
@@ -1227,87 +1235,123 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>72</v>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
       <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="D16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Dialogue/CMRCoversation.xlsx
+++ b/Assets/Dialogue/CMRCoversation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niallfw/Projects/BlueX/UntitledGame/Prototyping/Assets/Dialogue/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\陆昱良\BlueX\Prototyping\Assets\Dialogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EA38F1-AF5E-5D4B-A179-C59BFA5DCCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17ED896-1EEF-4E9D-98B2-0A1FC3454162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="7280" windowWidth="25820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
   <si>
     <t>Actor</t>
   </si>
@@ -43,16 +43,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Hark, grunt, I ken what that is. What I mean is — why dost thou still keep those goggles after the war?</t>
-  </si>
-  <si>
     <t>…thou art one of them, art thou not?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Me? Thou ask of me? I am the OTHER.</t>
-  </si>
-  <si>
     <t>Indeed, the other. The other from yesteryear. The other standing here.</t>
   </si>
   <si>
@@ -60,26 +54,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>And aye, my child, thou art merely thyself, art thou not? Thou art one of them, I comprehend.</t>
-  </si>
-  <si>
-    <t>…and I am anything, anything but thee. A yea-sayer, as thou once wast.</t>
-  </si>
-  <si>
-    <t>Thou wert thou. Thou art thou. Thou shalt be thou. It matters not to me. To me, child, thou art merely one of them, beyond question.</t>
-  </si>
-  <si>
-    <t>A pity, is it not? Yea, what a pity! Freedom is all thou hast. Now get focused, demigod. Get focused, soldier!</t>
-  </si>
-  <si>
-    <t>Hark, cast not that pilot’s tantrum at me. There is a reason we replaced those self-righteous bipeds with thee.</t>
-  </si>
-  <si>
     <t>Yet I shall not say ‘Nay’ to thee. So if thou wilt, keep thy composure and follow my lead.</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Say what thou art, child. Say thou art a pilot. Shall a pilot ever dispute with the navigator?</t>
   </si>
   <si>
     <t>Certainly. Thou art lost, child. Find me. I shall be thine eyes. I shall be the remedy to thy blindness and ignorance.</t>
@@ -115,15 +91,146 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>There thou art. At last growing accustomed to those two frail, slender limbs of thine?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>你来了。终于习惯了你那两只纤细柔弱的肢体了吗？</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Come hither, child. </t>
+    <t>Sentence2_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence2_cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Where, thou askest? Ubi sunt, ubi nunc. Thou art alone. Nothing else, truly, nothing.</t>
+  </si>
+  <si>
+    <t>Aye, the game continueth!</t>
+  </si>
+  <si>
+    <t>Sentence3_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence3_cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence4_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentence4_cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没错，另者。来自昔日的另者。站在这里的另者。</t>
+  </si>
+  <si>
+    <t>在你面前的另者，笼罩在火山口下。在你之外的另者，悬停在虚空之上。</t>
+  </si>
+  <si>
+    <t>但我却不会拒绝你。所以，如果你愿意，保持镇定，听从我的领导。</t>
+  </si>
+  <si>
+    <t>当然。你迷路了，孩子。来找我。我将是你的眼睛。我将成为你盲目和无知的解药。</t>
+  </si>
+  <si>
+    <t>Hark, &lt;color=#808080ff&gt;YOU&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>喂，&lt;color=#808080ff&gt;你&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>There thou art. At last growing accustomed to those two frail, slender &lt;color=#808080ff&gt;limbs&lt;/color&gt; of thine?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你来了。终于习惯了你那两只纤细柔弱的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;color=#808080ff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下肢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了吗？</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Now. Stay there. Stand motionless. Let me take a deep, &lt;color=#808080ff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>deep&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> look.</t>
+    </r>
+  </si>
+  <si>
+    <t>现在，留在那里。一动不动地站着。让我仔细地、&lt;color=#808080ff&gt;深深&lt;/color&gt;地看一眼。</t>
+  </si>
+  <si>
+    <t>Enjoying the old-fashioned game? A fine diversion for &lt;color=#808080ff&gt;mortals&lt;/color&gt;, especially the &lt;color=#808080ff&gt;mad&lt;/color&gt; ones. Calms them swiftly.</t>
+  </si>
+  <si>
+    <t>喜欢那个老式的游戏吗？这对&lt;color=#808080ff&gt;凡人&lt;/color&gt;，尤其是&lt;color=#808080ff&gt;疯狂&lt;/color&gt;的凡人来说是个很好的消遣。让他们迅速平静下来。</t>
+  </si>
+  <si>
+    <t>是啊，游戏继续！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aye, thou heard me aright. &lt;color=#808080ff&gt;Thou, with that ludicrous thing upon thy head.&lt;/color&gt; Declare thyself.</t>
+  </si>
+  <si>
+    <t>对的，你没听错。就是&lt;color=#808080ff&gt;你，头戴古怪东西的家伙&lt;/color&gt;。宣明你自己的身份。</t>
+  </si>
+  <si>
+    <r>
+      <t>Come hither, child. &lt;color=#808080ff&gt;</t>
     </r>
     <r>
       <rPr>
@@ -132,7 +239,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Closer</t>
+      <t>Closer&lt;/color&gt;</t>
     </r>
     <r>
       <rPr>
@@ -145,6 +252,47 @@
     </r>
   </si>
   <si>
+    <t>过来，吾儿。再&lt;color=#808080ff&gt;靠近点&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>What thinkest thou, our mighty cold-blooded &lt;color=#808080ff&gt;winged assassin&lt;/color&gt;? Seest thou aught different through those cursed &lt;color=#808080ff&gt;goggles&lt;/color&gt;?</t>
+  </si>
+  <si>
+    <t>你有什么想法，我们强大的冷血&lt;color=#808080ff&gt;有翼的刺客&lt;/color&gt;？透过那个被诅咒的&lt;color=#808080ff&gt;护目镜&lt;/color&gt;，你看到了什么不同吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bravo! Now, eyes upon the foe! Eyes upon the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;color=#808080ff&gt;hero&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>好极了！现在，注视敌人！注视&lt;color=#808080ff&gt;英雄&lt;/color&gt;！</t>
+  </si>
+  <si>
+    <t>Hark, grunt, I ken what that is. What I mean is — why dost thou still keep those &lt;color=#808080ff&gt;goggles&lt;/color&gt; after the war?</t>
+  </si>
+  <si>
+    <t>喂，呃，我知道那是什么。我的意思是——为什么战争结束后你还戴着这个&lt;color=#808080ff&gt;护目镜&lt;/color&gt;？</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">I shall not devour thee whole, fret not. Thou hast </t>
     </r>
@@ -182,7 +330,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> blood to lose. Step </t>
+      <t xml:space="preserve"> blood to lose. Step &lt;color=#808080ff&gt;</t>
     </r>
     <r>
       <rPr>
@@ -191,7 +339,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>forward</t>
+      <t>forward&lt;/color&gt;</t>
     </r>
     <r>
       <rPr>
@@ -200,7 +348,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">. I desire a proper </t>
+      <t>. I desire a proper &lt;color=#808080ff&gt;</t>
     </r>
     <r>
       <rPr>
@@ -209,7 +357,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>gaze</t>
+      <t>gaze&lt;/color&gt;</t>
     </r>
     <r>
       <rPr>
@@ -223,15 +371,93 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Now. Stay there. Stand motionless. Let me take a deep, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>deep</t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我不会把你吞掉，别担心。你既没有血也没有肉，你不会损伤分毫。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;color=#808080ff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向前走</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。我希望好好地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;color=#808080ff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#808080ff&gt;Stacking&lt;/color&gt;, &lt;color=#808080ff&gt;arranging&lt;/color&gt;, then &lt;color=#808080ff&gt;clearing&lt;/color&gt; it all in one fell swoop. Boom, what a display! All gone. Seem familiar? Dost thou &lt;color=#808080ff&gt;miss&lt;/color&gt; it?</t>
+  </si>
+  <si>
+    <t>&lt;color=#808080ff&gt;堆叠&lt;/color&gt;，&lt;color=#808080ff&gt;排列&lt;/color&gt;，然后&lt;color=#808080ff&gt;清除&lt;/color&gt;，一气呵成。嘭，多么壮观的场面！全没了。熟悉吗？你是不是&lt;color=#808080ff&gt;想念&lt;/color&gt;它？</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#808080ff&gt;Mortals&lt;/color&gt;</t>
     </r>
     <r>
       <rPr>
@@ -240,76 +466,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> look.</t>
-    </r>
-  </si>
-  <si>
-    <t>Sentence2_en</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sentence2_cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Where, thou askest? Ubi sunt, ubi nunc. Thou art alone. Nothing else, truly, nothing.</t>
-  </si>
-  <si>
-    <t>All that returneth to thee doth so at the appointed time, child. O heart! Recur!</t>
-  </si>
-  <si>
-    <t>Aye, the game continueth!</t>
-  </si>
-  <si>
-    <t>Sentence3_en</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sentence3_cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sentence4_en</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sentence4_cn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enjoying the old-fashioned game? A fine diversion for mortals, especially the mad ones. Calms them swiftly.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>What thinkest thou, our mighty cold-blooded winged assassin? Seest thou aught different through those cursed goggles?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stacking, arranging, then clearing it all in one fell swoop. Boom, what a display! All gone. Seem familiar? Dost thou miss it?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweet old memories, dost thou recall them? They should come back to thee. Recur, say we. Recur! Do thyself a favor.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thou canst not escape that — without those goggles, thou wouldst never perceive aright for long in this place.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thou art one of them, child. One of them, as I have spoken.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>If it be of aid, look beneath thy cockpit. Thou knowest my meaning.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆叠，排列，然后清除，一气呵成。嘭，多么壮观的场面！全没了。熟悉吗？你是否想念它？</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bravo! Now, eyes upon the foe! Eyes upon the </t>
+      <t xml:space="preserve"> perish to become heroes. True </t>
     </r>
     <r>
       <rPr>
@@ -318,7 +475,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Hero</t>
+      <t>&lt;color=#808080ff&gt;heroes&lt;/color&gt;</t>
     </r>
     <r>
       <rPr>
@@ -327,141 +484,97 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Mortals</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> perish to become heroes. True </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>heroes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve"> never perish.</t>
     </r>
   </si>
   <si>
-    <t>好极了！现在，注视敌人！注视英雄！</t>
-  </si>
-  <si>
-    <t>喂，&lt;color=#0000FF&gt;你&lt;/color&gt;。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对的，你没听错。就是你，头戴古怪东西的家伙。宣明你自己的身份。</t>
-  </si>
-  <si>
-    <t>喂，你。</t>
-  </si>
-  <si>
-    <t>喂，呃，我知道那是什么。我的意思是——为什么战争结束后你还戴着这个护目镜？</t>
-  </si>
-  <si>
-    <t>我？我就是另者。</t>
-  </si>
-  <si>
-    <t>没错，另者。来自昔日的另者。站在这里的另者。</t>
-  </si>
-  <si>
-    <t>在你面前的另者，笼罩在火山口下。在你之外的另者，悬停在虚空之上。</t>
-  </si>
-  <si>
-    <t>是啊，吾儿，你只是你自己，不是吗？你是他们中的一员，明白了。</t>
-  </si>
-  <si>
-    <t>......我是任何东西，除了你之外的任何东西。一个乐观的人，就像你曾经是一样。</t>
-  </si>
-  <si>
-    <t>你曾是你。你是你。你将是你。这对我来说无关紧要。对我来说，吾儿，你只是他们中的一员，毫无疑问。</t>
-  </si>
-  <si>
-    <t>真遗憾，不是吗？是啊，太遗憾了！自由是你拥有的一切。现在集中注意力，半神。集中注意力，士兵！</t>
-  </si>
-  <si>
-    <t>喂，别对我发那飞行员的脾气。我们用你取代那些自以为是的两足动物是有原因的。</t>
-  </si>
-  <si>
-    <t>但我却不会拒绝你。所以，如果你愿意，保持镇定，听从我的领导。</t>
-  </si>
-  <si>
-    <t>快说出你是什么，孩子。说你是飞行员。飞行员会和领航员争执吗？</t>
-  </si>
-  <si>
-    <t>当然。你迷路了，孩子。来找我。我将是你的眼睛。我将成为你盲目和无知的解药。</t>
-  </si>
-  <si>
-    <t>Hark, &lt;b&gt;YOU&lt;/b&gt;.</t>
-  </si>
-  <si>
-    <t>现在，留在那里。一动不动地站着。让我深深地、仔细地看一眼。</t>
-  </si>
-  <si>
-    <t>喜欢那个老式的游戏吗？这对凡人，尤其是疯狂的凡人来说是个很好的消遣。让他们迅速平静下来。</t>
-  </si>
-  <si>
-    <t>是啊，游戏还在继续！</t>
-  </si>
-  <si>
-    <t>Aye, thou heard me aright. &lt;color="red"&gt;Thou, with that ludicrous thing upon thy head.&lt;/color&gt; Declare thyself.</t>
-  </si>
-  <si>
-    <t>过来，吾儿。再靠近点。</t>
-  </si>
-  <si>
-    <t>你有什么想法，我们强大的冷血有翼的刺客？透过那个被诅咒的护目镜，你看到了什么不同吗？</t>
-  </si>
-  <si>
-    <t>我不会把你整个吃掉，别担心。你既没有肉也没有血液会损失。向前走。我希望好好地注视你。</t>
-  </si>
-  <si>
-    <t>凡人灭亡后才能成为英雄。真正的英雄永不灭亡。</t>
-  </si>
-  <si>
-    <t>甜蜜的往事，你还记得吗？它们应该回到你身边。回，我们说。回，你还是为自己好吧。</t>
-  </si>
-  <si>
-    <t>你无法逃避--如果没有那副护目镜，你将永远不会在这个地方正确理解。</t>
-  </si>
-  <si>
-    <t>你是他们中的一员，孩子。正如我所说，你是他们中的一员。</t>
-  </si>
-  <si>
-    <t>你问在哪里？Ubi sunt, ubi nunc. 你是孤独的。没有别的，确实没有。</t>
-  </si>
-  <si>
-    <t>孩子，一切回到你身边的事物，都在指定的时间返回。心啊！回！</t>
-  </si>
-  <si>
-    <t>如果能帮上忙，就看看你的座舱下面吧。你懂我的意思。</t>
+    <t>&lt;color=#808080ff&gt;凡人&lt;/color&gt;灭亡后才能成为英雄。真正的&lt;color=#808080ff&gt;英雄&lt;/color&gt;永不灭亡。</t>
+  </si>
+  <si>
+    <t>Sweet old memories, dost thou recall them? They should come back to thee. &lt;color=#808080ff&gt;recur&lt;/color&gt;, say we. &lt;color=#808080ff&gt;recur&lt;/color&gt;! Do thyself a favor.</t>
+  </si>
+  <si>
+    <t>甜蜜的往事，你还记得吗？它们应该回到你身边。&lt;color=#808080ff&gt;回忆&lt;/color&gt;，我们说。&lt;color=#808080ff&gt;回!&lt;/color&gt;，帮帮你自己!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Me? Thou ask of me? I am the &lt;color=#808080ff&gt;OTHER&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>我？我就是&lt;color=#808080ff&gt;另者&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>Thou canst not escape that — without those &lt;color=#808080ff&gt;goggles&lt;/color&gt;, thou wouldst never perceive aright for long in this place.</t>
+  </si>
+  <si>
+    <t>你无法逃避--如果没有那副&lt;color=#808080ff&gt;护目镜&lt;/color&gt;，你永远不会在这个地方取得真正的醒悟。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thou art one of them, child. &lt;color=#808080ff&gt;One of them&lt;/color&gt;, as I have spoken.</t>
+  </si>
+  <si>
+    <t>你是他们中的一员，孩子。正如我所说，你是&lt;color=#808080ff&gt;他们中的一员&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>你在哪儿？你是谁？他们是谁？你是孤独的，空寂，真正的孤独。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>And aye, my child, thou art merely &lt;color=#808080ff&gt;thyself&lt;/color&gt;, art thou not? Thou art &lt;color=#808080ff&gt;one of them&lt;/color&gt;, I comprehend.</t>
+  </si>
+  <si>
+    <t>是啊，吾儿，你只是&lt;color=#808080ff&gt;你自己&lt;/color&gt;，不是吗？你是&lt;color=#808080ff&gt;他们中的一员&lt;/color&gt;，明白了。</t>
+  </si>
+  <si>
+    <t>All that returneth to thee doth so at the appointed time, child. O heart! &lt;color=#808080ff&gt;Recur&lt;/color&gt;!</t>
+  </si>
+  <si>
+    <t>孩子，所有的回忆将在那一刻返回。哦！&lt;color=#808080ff&gt;回&lt;/color&gt;！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>…and I am anything, anything but thee. A &lt;color=#808080ff&gt;yea-sayer&lt;/color&gt;, as thou once wast.</t>
+  </si>
+  <si>
+    <t>......我是任何东西，除了你之外的任何东西。一个&lt;color=#808080ff&gt;乐观的人&lt;/color&gt;，就像你曾经是一样。</t>
+  </si>
+  <si>
+    <t>If it be of aid, look beneath thy &lt;color=#808080ff&gt;cockpit&lt;/color&gt;. Thou knowest my meaning.</t>
+  </si>
+  <si>
+    <t>如果能帮上忙，就看看你的&lt;color=#808080ff&gt;座舱&lt;/color&gt;下面吧。你懂我的意思。</t>
+  </si>
+  <si>
+    <t>Thou wert &lt;color=#808080ff&gt;thou&lt;/color&gt;. Thou art &lt;color=#808080ff&gt;thou&lt;/color&gt;. Thou shalt be &lt;color=#808080ff&gt;thou&lt;/color&gt;. It matters not to me. To me, child, thou art merely one of them, beyond question.</t>
+  </si>
+  <si>
+    <t>你曾是&lt;color=#808080ff&gt;你&lt;/color&gt;。你是&lt;color=#808080ff&gt;你&lt;/color&gt;。你将是&lt;color=#808080ff&gt;你&lt;/color&gt;。这对我来说无关紧要。对我来说，吾儿，你只是他们中的一员，毫无疑问。</t>
+  </si>
+  <si>
+    <t>A pity, is it not? Yea, what a pity! &lt;color=#808080ff&gt;Freedom&lt;/color&gt; is all thou hast. Now get &lt;color=#808080ff&gt;focused&lt;/color&gt;, demigod. Get &lt;color=#808080ff&gt;focused&lt;/color&gt;, soldier!</t>
+  </si>
+  <si>
+    <t>真遗憾，不是吗？是啊，太遗憾了！&lt;color=#808080ff&gt;自由&lt;/color&gt;是你拥有的一切。现在&lt;color=#808080ff&gt;集中注意力&lt;/color&gt;，半神。&lt;color=#808080ff&gt;集中注意力&lt;/color&gt;，士兵！</t>
+  </si>
+  <si>
+    <t>Hark, cast not that &lt;color=#808080ff&gt;pilot’s tantrum&lt;/color&gt; at me. There is a reason we replaced those self-righteous bipeds with thee.</t>
+  </si>
+  <si>
+    <t>喂，别对我发那&lt;color=#808080ff&gt;飞行员的脾气&lt;/color&gt;。我们用你取代那些自以为是的两足动物是有原因的。</t>
+  </si>
+  <si>
+    <t>Say what thou art, child. Say thou art a &lt;color=#808080ff&gt;pilot&lt;/color&gt;. Shall a pilot ever dispute with the navigator?</t>
+  </si>
+  <si>
+    <t>快说出你是什么，孩子。说你是&lt;color=#808080ff&gt;飞行员&lt;/color&gt;。飞行员会和领航员争执吗？</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -506,6 +619,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -527,15 +652,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -551,7 +678,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -870,19 +997,19 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,352 +1020,352 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="14">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="3" t="s">
+    </row>
+    <row r="11" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
         <v>65</v>
       </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="D11" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="14">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="J11" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="14">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="14">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="14">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="14">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="14">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="14">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="14">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="14">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="14">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="14">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="14">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="14">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Dialogue/CMRCoversation.xlsx
+++ b/Assets/Dialogue/CMRCoversation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\陆昱良\BlueX\Prototyping\Assets\Dialogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17ED896-1EEF-4E9D-98B2-0A1FC3454162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727E1BCC-9B46-4EE1-9C9A-ABD211ACC07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Actor</t>
   </si>
@@ -568,6 +568,22 @@
   </si>
   <si>
     <t>快说出你是什么，孩子。说你是&lt;color=#808080ff&gt;飞行员&lt;/color&gt;。飞行员会和领航员争执吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enough of this. Refocus, soldier. Refocus!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>差不多了！重新集中你的注意力！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tetris_en</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tetris_cn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -997,7 +1013,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1024,8 +1040,8 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
+      <c r="B2" t="s">
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1056,6 +1072,9 @@
       </c>
       <c r="L2" t="s">
         <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.5" x14ac:dyDescent="0.4">
@@ -1063,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -1095,15 +1114,12 @@
       <c r="L3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>36</v>
       </c>
@@ -1131,12 +1147,7 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>44</v>
       </c>
@@ -1164,12 +1175,6 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -1185,12 +1190,7 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -1205,12 +1205,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -1225,12 +1220,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -1245,12 +1235,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>61</v>
       </c>
@@ -1265,12 +1250,6 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
       <c r="C11" t="s">
         <v>65</v>
       </c>
@@ -1285,12 +1264,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>69</v>
       </c>
@@ -1299,12 +1273,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>71</v>
       </c>
@@ -1313,12 +1282,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>73</v>
       </c>
@@ -1327,12 +1291,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>8</v>
       </c>
@@ -1341,12 +1300,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>75</v>
       </c>
@@ -1354,13 +1308,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>26</v>
-      </c>
+    <row r="17" spans="2:4" ht="13" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
       <c r="C17" t="s">
         <v>9</v>
       </c>

--- a/Assets/Dialogue/CMRCoversation.xlsx
+++ b/Assets/Dialogue/CMRCoversation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\陆昱良\BlueX\Prototyping\Assets\Dialogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727E1BCC-9B46-4EE1-9C9A-ABD211ACC07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EEC8CA-79DA-43FA-816C-0DC789519938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>Actor</t>
   </si>
@@ -133,443 +133,14 @@
     <t>当然。你迷路了，孩子。来找我。我将是你的眼睛。我将成为你盲目和无知的解药。</t>
   </si>
   <si>
-    <t>Hark, &lt;color=#808080ff&gt;YOU&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>喂，&lt;color=#808080ff&gt;你&lt;/color&gt;。</t>
-  </si>
-  <si>
-    <t>There thou art. At last growing accustomed to those two frail, slender &lt;color=#808080ff&gt;limbs&lt;/color&gt; of thine?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你来了。终于习惯了你那两只纤细柔弱的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;color=#808080ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下肢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>了吗？</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Now. Stay there. Stand motionless. Let me take a deep, &lt;color=#808080ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>deep&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> look.</t>
-    </r>
-  </si>
-  <si>
-    <t>现在，留在那里。一动不动地站着。让我仔细地、&lt;color=#808080ff&gt;深深&lt;/color&gt;地看一眼。</t>
-  </si>
-  <si>
-    <t>Enjoying the old-fashioned game? A fine diversion for &lt;color=#808080ff&gt;mortals&lt;/color&gt;, especially the &lt;color=#808080ff&gt;mad&lt;/color&gt; ones. Calms them swiftly.</t>
-  </si>
-  <si>
-    <t>喜欢那个老式的游戏吗？这对&lt;color=#808080ff&gt;凡人&lt;/color&gt;，尤其是&lt;color=#808080ff&gt;疯狂&lt;/color&gt;的凡人来说是个很好的消遣。让他们迅速平静下来。</t>
-  </si>
-  <si>
     <t>是啊，游戏继续！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Aye, thou heard me aright. &lt;color=#808080ff&gt;Thou, with that ludicrous thing upon thy head.&lt;/color&gt; Declare thyself.</t>
-  </si>
-  <si>
-    <t>对的，你没听错。就是&lt;color=#808080ff&gt;你，头戴古怪东西的家伙&lt;/color&gt;。宣明你自己的身份。</t>
-  </si>
-  <si>
-    <r>
-      <t>Come hither, child. &lt;color=#808080ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Closer&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> still.</t>
-    </r>
-  </si>
-  <si>
-    <t>过来，吾儿。再&lt;color=#808080ff&gt;靠近点&lt;/color&gt;。</t>
-  </si>
-  <si>
-    <t>What thinkest thou, our mighty cold-blooded &lt;color=#808080ff&gt;winged assassin&lt;/color&gt;? Seest thou aught different through those cursed &lt;color=#808080ff&gt;goggles&lt;/color&gt;?</t>
-  </si>
-  <si>
-    <t>你有什么想法，我们强大的冷血&lt;color=#808080ff&gt;有翼的刺客&lt;/color&gt;？透过那个被诅咒的&lt;color=#808080ff&gt;护目镜&lt;/color&gt;，你看到了什么不同吗？</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bravo! Now, eyes upon the foe! Eyes upon the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;color=#808080ff&gt;hero&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>!</t>
-    </r>
-  </si>
-  <si>
-    <t>好极了！现在，注视敌人！注视&lt;color=#808080ff&gt;英雄&lt;/color&gt;！</t>
-  </si>
-  <si>
-    <t>Hark, grunt, I ken what that is. What I mean is — why dost thou still keep those &lt;color=#808080ff&gt;goggles&lt;/color&gt; after the war?</t>
-  </si>
-  <si>
-    <t>喂，呃，我知道那是什么。我的意思是——为什么战争结束后你还戴着这个&lt;color=#808080ff&gt;护目镜&lt;/color&gt;？</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I shall not devour thee whole, fret not. Thou hast </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>neither</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> flesh </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>nor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> blood to lose. Step &lt;color=#808080ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>forward&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>. I desire a proper &lt;color=#808080ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gaze&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> upon thee.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我不会把你吞掉，别担心。你既没有血也没有肉，你不会损伤分毫。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;color=#808080ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>向前走</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。我希望好好地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;color=#808080ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#808080ff&gt;Stacking&lt;/color&gt;, &lt;color=#808080ff&gt;arranging&lt;/color&gt;, then &lt;color=#808080ff&gt;clearing&lt;/color&gt; it all in one fell swoop. Boom, what a display! All gone. Seem familiar? Dost thou &lt;color=#808080ff&gt;miss&lt;/color&gt; it?</t>
-  </si>
-  <si>
-    <t>&lt;color=#808080ff&gt;堆叠&lt;/color&gt;，&lt;color=#808080ff&gt;排列&lt;/color&gt;，然后&lt;color=#808080ff&gt;清除&lt;/color&gt;，一气呵成。嘭，多么壮观的场面！全没了。熟悉吗？你是不是&lt;color=#808080ff&gt;想念&lt;/color&gt;它？</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;color=#808080ff&gt;Mortals&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> perish to become heroes. True </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;color=#808080ff&gt;heroes&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> never perish.</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;color=#808080ff&gt;凡人&lt;/color&gt;灭亡后才能成为英雄。真正的&lt;color=#808080ff&gt;英雄&lt;/color&gt;永不灭亡。</t>
-  </si>
-  <si>
-    <t>Sweet old memories, dost thou recall them? They should come back to thee. &lt;color=#808080ff&gt;recur&lt;/color&gt;, say we. &lt;color=#808080ff&gt;recur&lt;/color&gt;! Do thyself a favor.</t>
-  </si>
-  <si>
-    <t>甜蜜的往事，你还记得吗？它们应该回到你身边。&lt;color=#808080ff&gt;回忆&lt;/color&gt;，我们说。&lt;color=#808080ff&gt;回!&lt;/color&gt;，帮帮你自己!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Me? Thou ask of me? I am the &lt;color=#808080ff&gt;OTHER&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>我？我就是&lt;color=#808080ff&gt;另者&lt;/color&gt;。</t>
-  </si>
-  <si>
-    <t>Thou canst not escape that — without those &lt;color=#808080ff&gt;goggles&lt;/color&gt;, thou wouldst never perceive aright for long in this place.</t>
-  </si>
-  <si>
-    <t>你无法逃避--如果没有那副&lt;color=#808080ff&gt;护目镜&lt;/color&gt;，你永远不会在这个地方取得真正的醒悟。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thou art one of them, child. &lt;color=#808080ff&gt;One of them&lt;/color&gt;, as I have spoken.</t>
-  </si>
-  <si>
-    <t>你是他们中的一员，孩子。正如我所说，你是&lt;color=#808080ff&gt;他们中的一员&lt;/color&gt;。</t>
-  </si>
-  <si>
     <t>你在哪儿？你是谁？他们是谁？你是孤独的，空寂，真正的孤独。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>And aye, my child, thou art merely &lt;color=#808080ff&gt;thyself&lt;/color&gt;, art thou not? Thou art &lt;color=#808080ff&gt;one of them&lt;/color&gt;, I comprehend.</t>
-  </si>
-  <si>
-    <t>是啊，吾儿，你只是&lt;color=#808080ff&gt;你自己&lt;/color&gt;，不是吗？你是&lt;color=#808080ff&gt;他们中的一员&lt;/color&gt;，明白了。</t>
-  </si>
-  <si>
-    <t>All that returneth to thee doth so at the appointed time, child. O heart! &lt;color=#808080ff&gt;Recur&lt;/color&gt;!</t>
-  </si>
-  <si>
-    <t>孩子，所有的回忆将在那一刻返回。哦！&lt;color=#808080ff&gt;回&lt;/color&gt;！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>…and I am anything, anything but thee. A &lt;color=#808080ff&gt;yea-sayer&lt;/color&gt;, as thou once wast.</t>
-  </si>
-  <si>
-    <t>......我是任何东西，除了你之外的任何东西。一个&lt;color=#808080ff&gt;乐观的人&lt;/color&gt;，就像你曾经是一样。</t>
-  </si>
-  <si>
-    <t>If it be of aid, look beneath thy &lt;color=#808080ff&gt;cockpit&lt;/color&gt;. Thou knowest my meaning.</t>
-  </si>
-  <si>
-    <t>如果能帮上忙，就看看你的&lt;color=#808080ff&gt;座舱&lt;/color&gt;下面吧。你懂我的意思。</t>
-  </si>
-  <si>
-    <t>Thou wert &lt;color=#808080ff&gt;thou&lt;/color&gt;. Thou art &lt;color=#808080ff&gt;thou&lt;/color&gt;. Thou shalt be &lt;color=#808080ff&gt;thou&lt;/color&gt;. It matters not to me. To me, child, thou art merely one of them, beyond question.</t>
-  </si>
-  <si>
-    <t>你曾是&lt;color=#808080ff&gt;你&lt;/color&gt;。你是&lt;color=#808080ff&gt;你&lt;/color&gt;。你将是&lt;color=#808080ff&gt;你&lt;/color&gt;。这对我来说无关紧要。对我来说，吾儿，你只是他们中的一员，毫无疑问。</t>
-  </si>
-  <si>
-    <t>A pity, is it not? Yea, what a pity! &lt;color=#808080ff&gt;Freedom&lt;/color&gt; is all thou hast. Now get &lt;color=#808080ff&gt;focused&lt;/color&gt;, demigod. Get &lt;color=#808080ff&gt;focused&lt;/color&gt;, soldier!</t>
-  </si>
-  <si>
-    <t>真遗憾，不是吗？是啊，太遗憾了！&lt;color=#808080ff&gt;自由&lt;/color&gt;是你拥有的一切。现在&lt;color=#808080ff&gt;集中注意力&lt;/color&gt;，半神。&lt;color=#808080ff&gt;集中注意力&lt;/color&gt;，士兵！</t>
-  </si>
-  <si>
-    <t>Hark, cast not that &lt;color=#808080ff&gt;pilot’s tantrum&lt;/color&gt; at me. There is a reason we replaced those self-righteous bipeds with thee.</t>
-  </si>
-  <si>
-    <t>喂，别对我发那&lt;color=#808080ff&gt;飞行员的脾气&lt;/color&gt;。我们用你取代那些自以为是的两足动物是有原因的。</t>
-  </si>
-  <si>
-    <t>Say what thou art, child. Say thou art a &lt;color=#808080ff&gt;pilot&lt;/color&gt;. Shall a pilot ever dispute with the navigator?</t>
-  </si>
-  <si>
-    <t>快说出你是什么，孩子。说你是&lt;color=#808080ff&gt;飞行员&lt;/color&gt;。飞行员会和领航员争执吗？</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Enough of this. Refocus, soldier. Refocus!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -584,13 +155,157 @@
   <si>
     <t>tetris_cn</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hark, &lt;color=#ffc800&gt;YOU&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>喂，&lt;color=#ffc800&gt;你&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>There thou art. At last growing accustomed to those two frail, slender &lt;color=#ffc800&gt;limbs&lt;/color&gt; of thine?</t>
+  </si>
+  <si>
+    <t>你来了。终于习惯了你那两只纤细柔弱的&lt;color=#ffc800&gt;下肢&lt;/color&gt;了吗？</t>
+  </si>
+  <si>
+    <t>Now. Stay there. Stand motionless. Let me take a deep, &lt;color=#ffc800&gt;deep&lt;/color&gt; look.</t>
+  </si>
+  <si>
+    <t>现在，留在那里。一动不动地站着。让我仔细地、&lt;color=#ffc800&gt;深深&lt;/color&gt;地看一眼。</t>
+  </si>
+  <si>
+    <t>Enjoying the old-fashioned game? A fine diversion for &lt;color=#ffc800&gt;mortals&lt;/color&gt;, especially the &lt;color=#ffc800&gt;mad&lt;/color&gt; ones. Calms them swiftly.</t>
+  </si>
+  <si>
+    <t>喜欢那个老式的游戏吗？这对&lt;color=#ffc800&gt;凡人&lt;/color&gt;，尤其是&lt;color=#ffc800&gt;疯狂&lt;/color&gt;的凡人来说是个很好的消遣。让他们迅速平静下来。</t>
+  </si>
+  <si>
+    <t>Aye, thou heard me aright. &lt;color=#ffc800&gt;Thou, with that ludicrous thing upon thy head.&lt;/color&gt; Declare thyself.</t>
+  </si>
+  <si>
+    <t>对的，你没听错。就是&lt;color=#ffc800&gt;你，头戴古怪东西的家伙&lt;/color&gt;。宣明你自己的身份。</t>
+  </si>
+  <si>
+    <t>Come hither, child. &lt;color=#ffc800&gt;Closer&lt;/color&gt; still.</t>
+  </si>
+  <si>
+    <t>过来，吾儿。再&lt;color=#ffc800&gt;靠近点&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>What thinkest thou, our mighty cold-blooded &lt;color=#ffc800&gt;winged assassin&lt;/color&gt;? Seest thou aught different through those cursed &lt;color=#ffc800&gt;goggles&lt;/color&gt;?</t>
+  </si>
+  <si>
+    <t>你有什么想法，我们强大的冷血&lt;color=#ffc800&gt;有翼的刺客&lt;/color&gt;？透过那个被诅咒的&lt;color=#ffc800&gt;护目镜&lt;/color&gt;，你看到了什么不同吗？</t>
+  </si>
+  <si>
+    <t>Bravo! Now, eyes upon the foe! Eyes upon the &lt;color=#ffc800&gt;hero&lt;/color&gt;!</t>
+  </si>
+  <si>
+    <t>好极了！现在，注视敌人！注视&lt;color=#ffc800&gt;英雄&lt;/color&gt;！</t>
+  </si>
+  <si>
+    <t>Hark, grunt, I ken what that is. What I mean is — why dost thou still keep those &lt;color=#ffc800&gt;goggles&lt;/color&gt; after the war?</t>
+  </si>
+  <si>
+    <t>喂，呃，我知道那是什么。我的意思是——为什么战争结束后你还戴着这个&lt;color=#ffc800&gt;护目镜&lt;/color&gt;？</t>
+  </si>
+  <si>
+    <t>I shall not devour thee whole, fret not. Thou hast neither flesh nor blood to lose. Step &lt;color=#ffc800&gt;forward&lt;/color&gt;. I desire a proper &lt;color=#ffc800&gt;gaze&lt;/color&gt; upon thee.</t>
+  </si>
+  <si>
+    <t>我不会把你吞掉，别担心。你既没有血也没有肉，你不会损伤分毫。&lt;color=#ffc800&gt;向前走&lt;/color&gt;。我希望好好地&lt;color=#ffc800&gt;注视&lt;/color&gt;你。</t>
+  </si>
+  <si>
+    <t>&lt;color=#ffc800&gt;Stacking&lt;/color&gt;, &lt;color=#ffc800&gt;arranging&lt;/color&gt;, then &lt;color=#ffc800&gt;clearing&lt;/color&gt; it all in one fell swoop. Boom, what a display! All gone. Seem familiar? Dost thou &lt;color=#ffc800&gt;miss&lt;/color&gt; it?</t>
+  </si>
+  <si>
+    <t>&lt;color=#ffc800&gt;堆叠&lt;/color&gt;，&lt;color=#ffc800&gt;排列&lt;/color&gt;，然后&lt;color=#ffc800&gt;清除&lt;/color&gt;，一气呵成。嘭，多么壮观的场面！全没了。熟悉吗？你是不是&lt;color=#ffc800&gt;想念&lt;/color&gt;它？</t>
+  </si>
+  <si>
+    <t>&lt;color=#ffc800&gt;Mortals&lt;/color&gt; perish to become heroes. True &lt;color=#ffc800&gt;heroes&lt;/color&gt; never perish.</t>
+  </si>
+  <si>
+    <t>&lt;color=#ffc800&gt;凡人&lt;/color&gt;灭亡后才能成为英雄。真正的&lt;color=#ffc800&gt;英雄&lt;/color&gt;永不灭亡。</t>
+  </si>
+  <si>
+    <t>Sweet old memories, dost thou recall them? They should come back to thee. &lt;color=#ffc800&gt;recur&lt;/color&gt;, say we. &lt;color=#ffc800&gt;recur&lt;/color&gt;! Do thyself a favor.</t>
+  </si>
+  <si>
+    <t>甜蜜的往事，你还记得吗？它们应该回到你身边。&lt;color=#ffc800&gt;回忆&lt;/color&gt;，我们说。&lt;color=#ffc800&gt;回!&lt;/color&gt;，帮帮你自己!</t>
+  </si>
+  <si>
+    <t>Me? Thou ask of me? I am the &lt;color=#ffc800&gt;OTHER&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>我？我就是&lt;color=#ffc800&gt;另者&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>Thou canst not escape that — without those &lt;color=#ffc800&gt;goggles&lt;/color&gt;, thou wouldst never perceive aright for long in this place.</t>
+  </si>
+  <si>
+    <t>你无法逃避--如果没有那副&lt;color=#ffc800&gt;护目镜&lt;/color&gt;，你永远不会在这个地方取得真正的醒悟。</t>
+  </si>
+  <si>
+    <t>Thou art one of them, child. &lt;color=#ffc800&gt;One of them&lt;/color&gt;, as I have spoken.</t>
+  </si>
+  <si>
+    <t>你是他们中的一员，孩子。正如我所说，你是&lt;color=#ffc800&gt;他们中的一员&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>And aye, my child, thou art merely &lt;color=#ffc800&gt;thyself&lt;/color&gt;, art thou not? Thou art &lt;color=#ffc800&gt;one of them&lt;/color&gt;, I comprehend.</t>
+  </si>
+  <si>
+    <t>是啊，吾儿，你只是&lt;color=#ffc800&gt;你自己&lt;/color&gt;，不是吗？你是&lt;color=#ffc800&gt;他们中的一员&lt;/color&gt;，明白了。</t>
+  </si>
+  <si>
+    <t>All that returneth to thee doth so at the appointed time, child. O heart! &lt;color=#ffc800&gt;Recur&lt;/color&gt;!</t>
+  </si>
+  <si>
+    <t>孩子，所有的回忆将在那一刻返回。哦！&lt;color=#ffc800&gt;回&lt;/color&gt;！</t>
+  </si>
+  <si>
+    <t>…and I am anything, anything but thee. A &lt;color=#ffc800&gt;yea-sayer&lt;/color&gt;, as thou once wast.</t>
+  </si>
+  <si>
+    <t>......我是任何东西，除了你之外的任何东西。一个&lt;color=#ffc800&gt;乐观的人&lt;/color&gt;，就像你曾经是一样。</t>
+  </si>
+  <si>
+    <t>If it be of aid, look beneath thy &lt;color=#ffc800&gt;cockpit&lt;/color&gt;. Thou knowest my meaning.</t>
+  </si>
+  <si>
+    <t>如果能帮上忙，就看看你的&lt;color=#ffc800&gt;座舱&lt;/color&gt;下面吧。你懂我的意思。</t>
+  </si>
+  <si>
+    <t>Thou wert &lt;color=#ffc800&gt;thou&lt;/color&gt;. Thou art &lt;color=#ffc800&gt;thou&lt;/color&gt;. Thou shalt be &lt;color=#ffc800&gt;thou&lt;/color&gt;. It matters not to me. To me, child, thou art merely one of them, beyond question.</t>
+  </si>
+  <si>
+    <t>你曾是&lt;color=#ffc800&gt;你&lt;/color&gt;。你是&lt;color=#ffc800&gt;你&lt;/color&gt;。你将是&lt;color=#ffc800&gt;你&lt;/color&gt;。这对我来说无关紧要。对我来说，吾儿，你只是他们中的一员，毫无疑问。</t>
+  </si>
+  <si>
+    <t>A pity, is it not? Yea, what a pity! &lt;color=#ffc800&gt;Freedom&lt;/color&gt; is all thou hast. Now get &lt;color=#ffc800&gt;focused&lt;/color&gt;, demigod. Get &lt;color=#ffc800&gt;focused&lt;/color&gt;, soldier!</t>
+  </si>
+  <si>
+    <t>真遗憾，不是吗？是啊，太遗憾了！&lt;color=#ffc800&gt;自由&lt;/color&gt;是你拥有的一切。现在&lt;color=#ffc800&gt;集中注意力&lt;/color&gt;，半神。&lt;color=#ffc800&gt;集中注意力&lt;/color&gt;，士兵！</t>
+  </si>
+  <si>
+    <t>Hark, cast not that &lt;color=#ffc800&gt;pilot’s tantrum&lt;/color&gt; at me. There is a reason we replaced those self-righteous bipeds with thee.</t>
+  </si>
+  <si>
+    <t>喂，别对我发那&lt;color=#ffc800&gt;飞行员的脾气&lt;/color&gt;。我们用你取代那些自以为是的两足动物是有原因的。</t>
+  </si>
+  <si>
+    <t>Say what thou art, child. Say thou art a &lt;color=#ffc800&gt;pilot&lt;/color&gt;. Shall a pilot ever dispute with the navigator?</t>
+  </si>
+  <si>
+    <t>快说出你是什么，孩子。说你是&lt;color=#ffc800&gt;飞行员&lt;/color&gt;。飞行员会和领航员争执吗？</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -634,11 +349,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -674,8 +384,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1013,7 +723,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1041,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1074,103 +784,119 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>78</v>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="3"/>
+    <row r="5" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -1182,30 +908,28 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -1213,14 +937,13 @@
         <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -1231,67 +954,62 @@
         <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>8</v>
       </c>
@@ -1300,16 +1018,14 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="13" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="13" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>9</v>
       </c>
